--- a/samples/sample_1.xlsx
+++ b/samples/sample_1.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\repositories\ExcelTable\samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="192" yWindow="72" windowWidth="19620" windowHeight="7680"/>
+    <workbookView xWindow="195" yWindow="75" windowWidth="19620" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,7 +24,7 @@
     <author>bleronm</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3150,11 +3152,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3214,20 +3216,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="data2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3273,7 +3270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3305,9 +3302,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3339,6 +3337,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3514,20 +3513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3704,11 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="F9" t="e">
-        <f>[1]data2!A1</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>52268.245218290256</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3819,7 +3817,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3840,7 +3838,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3878,13 +3876,13 @@
         <v>XXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXX</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>15554.609707658517</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3915,7 +3913,7 @@
         <v>42428</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3932,7 +3930,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3983,7 +3981,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4000,7 +3998,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4017,7 +4015,7 @@
         <v>42434</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>42435</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4048,7 +4046,7 @@
         <v>18499.745144157354</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>70280.48856020339</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4076,7 +4074,7 @@
         <v>86505.202434232677</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4090,7 +4088,7 @@
         <v>84750.467528769354</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4104,7 +4102,7 @@
         <v>58309.316662637386</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>84282.248778033958</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4132,7 +4130,7 @@
         <v>47862.791158817243</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4146,7 +4144,7 @@
         <v>58830.433623165714</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>19915.815380574721</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4174,7 +4172,7 @@
         <v>39035.34093649537</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4188,7 +4186,7 @@
         <v>94076.131110632137</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>68069.792645364927</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4216,7 +4214,7 @@
         <v>88510.617889570058</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4230,7 +4228,7 @@
         <v>29421.759727958484</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>89539.726834485322</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>40306.76790820351</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4272,7 +4270,7 @@
         <v>49699.902962303</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4286,7 +4284,7 @@
         <v>1345.7385777443599</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4300,7 +4298,7 @@
         <v>45913.362078152444</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4314,7 +4312,7 @@
         <v>31860.74973745241</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4328,7 +4326,7 @@
         <v>68527.210484778145</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>78162.568875300261</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>95584.154656126324</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>19007.577872182323</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>78660.456188723678</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4398,7 +4396,7 @@
         <v>19198.586294515961</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4412,7 +4410,7 @@
         <v>89274.854201767288</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>11313.782725351641</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4440,7 +4438,7 @@
         <v>73925.331122547621</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4454,7 +4452,7 @@
         <v>6634.2130142743372</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4468,7 +4466,7 @@
         <v>1280.9438702681141</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4482,7 +4480,7 @@
         <v>83853.910486570894</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4496,7 +4494,7 @@
         <v>6440.3918487355941</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4510,7 +4508,7 @@
         <v>51290.361921072079</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4524,7 +4522,7 @@
         <v>24418.625793905234</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>87640.468549636003</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4552,7 +4550,7 @@
         <v>23534.348934699523</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4566,7 +4564,7 @@
         <v>39478.393027304206</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>57763.557972787268</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4594,7 +4592,7 @@
         <v>30977.682866159561</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4608,7 +4606,7 @@
         <v>51553.101583729076</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>55871.055305210946</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4636,7 +4634,7 @@
         <v>55489.104746184312</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>41688.842328842511</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>49691.864396124722</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>86205.445273016609</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4692,7 +4690,7 @@
         <v>6433.8960950141909</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4706,7 +4704,7 @@
         <v>57831.630939184572</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4720,7 +4718,7 @@
         <v>92517.244210652192</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4734,7 +4732,7 @@
         <v>22901.343085891313</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>37479.405219916858</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4762,7 +4760,7 @@
         <v>28535.135810057043</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>42346.019928184207</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>66982.46193675157</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4804,7 +4802,7 @@
         <v>3519.5500729762407</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>58846.87960249262</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4832,7 +4830,7 @@
         <v>20312.586961940848</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4846,7 +4844,7 @@
         <v>87288.486223066575</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4860,7 +4858,7 @@
         <v>13259.510011855236</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>85203.944612664069</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4888,7 +4886,7 @@
         <v>93136.462387899854</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>63691.00027342762</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4916,7 +4914,7 @@
         <v>38496.686354861231</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4930,7 +4928,7 @@
         <v>80203.032472488616</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>52889.132064237485</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>15234.583760947462</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4972,7 +4970,7 @@
         <v>68049.884290357077</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4986,7 +4984,7 @@
         <v>23196.198644074251</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5000,7 +4998,7 @@
         <v>60461.257660584102</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>13661.546062668738</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>87113.936880919238</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5042,7 +5040,7 @@
         <v>40917.450107160126</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5056,7 +5054,7 @@
         <v>98777.29294942737</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5070,7 +5068,7 @@
         <v>4665.0164198069888</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5084,7 +5082,7 @@
         <v>58274.918542654319</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>25309.96196422528</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>2185.21906006679</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>69721.572586633585</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5140,7 +5138,7 @@
         <v>94923.880995537416</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5154,7 +5152,7 @@
         <v>48494.964300855892</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5168,7 +5166,7 @@
         <v>69875.421110576979</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5182,7 +5180,7 @@
         <v>70143.652606630538</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>60604.745414851903</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>55346.644372024035</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5224,7 +5222,7 @@
         <v>82821.891816843257</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>722.00903043801998</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5252,7 +5250,7 @@
         <v>11070.606930012695</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5266,7 +5264,7 @@
         <v>87556.412557419171</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>56901.09940565571</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5294,7 +5292,7 @@
         <v>90239.577981008726</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5308,7 +5306,7 @@
         <v>44752.199996495001</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5322,7 +5320,7 @@
         <v>66807.191106673286</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>60801.468319801534</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>59869.798767504799</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5364,7 +5362,7 @@
         <v>89979.60220260435</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5378,7 +5376,7 @@
         <v>47660.026466522344</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5392,7 +5390,7 @@
         <v>7376.4773366118197</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5406,7 +5404,7 @@
         <v>20962.351551707714</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5420,7 +5418,7 @@
         <v>68227.050625728574</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5434,7 +5432,7 @@
         <v>24373.492508602547</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5448,7 +5446,7 @@
         <v>43591.989161458143</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5462,7 +5460,7 @@
         <v>47731.237873048136</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5476,7 +5474,7 @@
         <v>82961.869336111966</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5490,7 +5488,7 @@
         <v>56614.373907906665</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5504,7 +5502,7 @@
         <v>95067.625247913413</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>93371.961033327723</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5532,7 +5530,7 @@
         <v>85798.676338698177</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5546,7 +5544,7 @@
         <v>8201.4613568957448</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5560,7 +5558,7 @@
         <v>27063.56849412357</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5574,7 +5572,7 @@
         <v>97742.676089240093</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5588,7 +5586,7 @@
         <v>82146.924595740973</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5602,7 +5600,7 @@
         <v>27125.312273207936</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5616,7 +5614,7 @@
         <v>69389.540463071869</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5630,7 +5628,7 @@
         <v>12756.868030831049</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5644,7 +5642,7 @@
         <v>11742.392276476199</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>37930.149120380906</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5672,7 +5670,7 @@
         <v>1438.7892643197285</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -5686,7 +5684,7 @@
         <v>21822.154615338895</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -5700,7 +5698,7 @@
         <v>69936.175271424887</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -5714,7 +5712,7 @@
         <v>24782.666130830399</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -5728,7 +5726,7 @@
         <v>19143.795959610288</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>77545.609584864738</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -5756,7 +5754,7 @@
         <v>63965.553439875934</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -5770,7 +5768,7 @@
         <v>37426.266891560408</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -5784,7 +5782,7 @@
         <v>20280.796411849165</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>22387.725639084711</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -5812,7 +5810,7 @@
         <v>32285.797189769204</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -5826,7 +5824,7 @@
         <v>40909.141400225213</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -5840,7 +5838,7 @@
         <v>49944.942483464103</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -5854,7 +5852,7 @@
         <v>4415.0769490222783</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>29982.132669535757</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -5882,7 +5880,7 @@
         <v>92783.242674162757</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -5896,7 +5894,7 @@
         <v>71777.645633894077</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>25408.301440300551</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>84029.149530318857</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5938,7 +5936,7 @@
         <v>54130.368776084833</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5952,7 +5950,7 @@
         <v>87832.621918643898</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5966,7 +5964,7 @@
         <v>82902.740979488532</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5980,7 +5978,7 @@
         <v>69534.131547093915</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5994,7 +5992,7 @@
         <v>43013.988661859439</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6008,7 +6006,7 @@
         <v>66083.548641522677</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6022,7 +6020,7 @@
         <v>97943.672066257292</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6036,7 +6034,7 @@
         <v>21166.063853954409</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6050,7 +6048,7 @@
         <v>54667.820400177101</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6064,7 +6062,7 @@
         <v>345.47370629471885</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>92752.995000952244</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>30631.605776421478</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6106,7 +6104,7 @@
         <v>45774.730929183803</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6120,7 +6118,7 @@
         <v>18749.0163854245</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6134,7 +6132,7 @@
         <v>25855.455086344748</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>75755.750954216186</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6162,7 +6160,7 @@
         <v>54572.152215108203</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6176,7 +6174,7 @@
         <v>97541.176028116621</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6190,7 +6188,7 @@
         <v>24160.128761921129</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6204,7 +6202,7 @@
         <v>85648.052486156652</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>44763.546153854651</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6232,7 +6230,7 @@
         <v>89762.956889557376</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6246,7 +6244,7 @@
         <v>75271.494765480806</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6260,7 +6258,7 @@
         <v>18131.647722607315</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6274,7 +6272,7 @@
         <v>13174.206863416815</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6288,7 +6286,7 @@
         <v>10254.999270199884</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6302,7 +6300,7 @@
         <v>70013.627305146554</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6316,7 +6314,7 @@
         <v>42855.646780096366</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6330,7 +6328,7 @@
         <v>4790.5953137378001</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6344,7 +6342,7 @@
         <v>77981.909582007633</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6358,7 +6356,7 @@
         <v>42947.601629917554</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6372,7 +6370,7 @@
         <v>73939.170983120814</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6386,7 +6384,7 @@
         <v>22702.550726100544</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6400,7 +6398,7 @@
         <v>37125.969539303405</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6414,7 +6412,7 @@
         <v>38406.902949330601</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6428,7 +6426,7 @@
         <v>5417.089131949826</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6442,7 +6440,7 @@
         <v>29208.952983228432</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>62942.022726415336</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6470,7 +6468,7 @@
         <v>33698.112300328023</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6484,7 +6482,7 @@
         <v>11718.62058078279</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6498,7 +6496,7 @@
         <v>79639.434027626412</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6512,7 +6510,7 @@
         <v>53235.041544501713</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6526,7 +6524,7 @@
         <v>34882.603457427198</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>33740.667959036939</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6554,7 +6552,7 @@
         <v>98179.60703901641</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6568,7 +6566,7 @@
         <v>88477.280429882914</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6582,7 +6580,7 @@
         <v>7707.5179871036289</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6596,7 +6594,7 @@
         <v>78098.84206064741</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>70556.128825481239</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6624,7 +6622,7 @@
         <v>83405.638463438707</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6638,7 +6636,7 @@
         <v>13708.930246303818</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6652,7 +6650,7 @@
         <v>39566.615066990998</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6666,7 +6664,7 @@
         <v>32787.650909910495</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6680,7 +6678,7 @@
         <v>2499.632637203586</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6694,7 +6692,7 @@
         <v>12563.861710109413</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6708,7 +6706,7 @@
         <v>51826.412116628569</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6722,7 +6720,7 @@
         <v>55284.14297314921</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6736,7 +6734,7 @@
         <v>39918.140676782517</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6750,7 +6748,7 @@
         <v>37887.933655837536</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>7906.7600815517562</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6778,7 +6776,7 @@
         <v>42872.653636344447</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6792,7 +6790,7 @@
         <v>94298.815824962396</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6806,7 +6804,7 @@
         <v>62065.837684257262</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6820,7 +6818,7 @@
         <v>36391.334812076348</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6834,7 +6832,7 @@
         <v>51896.774070867592</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>44494.582544765835</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6862,7 +6860,7 @@
         <v>44998.719908572668</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6876,7 +6874,7 @@
         <v>90288.382701028168</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6890,7 +6888,7 @@
         <v>24284.493784451566</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6904,7 +6902,7 @@
         <v>59272.092870776396</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6918,7 +6916,7 @@
         <v>41142.620669828124</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6932,7 +6930,7 @@
         <v>88106.117950817439</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6946,7 +6944,7 @@
         <v>77867.591087581095</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6960,7 +6958,7 @@
         <v>50623.506927601295</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>36863.866990805152</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6988,7 +6986,7 @@
         <v>63249.242825081288</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7002,7 +7000,7 @@
         <v>86034.854655137009</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7016,7 +7014,7 @@
         <v>1907.7627585909695</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7030,7 +7028,7 @@
         <v>9798.6773193897916</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7044,7 +7042,7 @@
         <v>71360.194500687605</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7058,7 +7056,7 @@
         <v>43003.865431874823</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7072,7 +7070,7 @@
         <v>50074.583732307154</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7086,7 +7084,7 @@
         <v>55753.445252291822</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7100,7 +7098,7 @@
         <v>63263.327858129291</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7114,7 +7112,7 @@
         <v>21253.567686206941</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>31323.831615675292</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7142,7 +7140,7 @@
         <v>41668.608975030882</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7156,7 +7154,7 @@
         <v>90791.313098370447</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7170,7 +7168,7 @@
         <v>18094.392915419034</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7184,7 +7182,7 @@
         <v>56204.370875515597</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7198,7 +7196,7 @@
         <v>67085.487336614795</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7212,7 +7210,7 @@
         <v>19142.542279085272</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7226,7 +7224,7 @@
         <v>33045.453621190733</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7240,7 +7238,7 @@
         <v>48552.282382951722</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7254,7 +7252,7 @@
         <v>69934.860645699984</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7268,7 +7266,7 @@
         <v>86437.696441598804</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7282,7 +7280,7 @@
         <v>42724.319987813338</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7296,7 +7294,7 @@
         <v>51088.020870355424</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>84069.684355747755</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>99438.14765135484</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7338,7 +7336,7 @@
         <v>54947.268664269977</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>55798.313168951121</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7366,7 +7364,7 @@
         <v>23481.987930509174</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7380,7 +7378,7 @@
         <v>84902.45842257292</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7394,7 +7392,7 @@
         <v>97008.469647810183</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7408,7 +7406,7 @@
         <v>85872.401030288165</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7422,7 +7420,7 @@
         <v>12443.355034844128</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7436,7 +7434,7 @@
         <v>18783.572284965721</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>21619.123131785491</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>64607.309069216048</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7478,7 +7476,7 @@
         <v>56754.349900531495</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7492,7 +7490,7 @@
         <v>18619.076736305207</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7506,7 +7504,7 @@
         <v>70605.732048525853</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7520,7 +7518,7 @@
         <v>30634.217648542439</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7534,7 +7532,7 @@
         <v>66751.583650942863</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7548,7 +7546,7 @@
         <v>3567.1789114059216</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -7562,7 +7560,7 @@
         <v>40531.475212029378</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -7576,7 +7574,7 @@
         <v>61850.320468781007</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>3203.3673610640358</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -7604,7 +7602,7 @@
         <v>42967.901692484411</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -7618,7 +7616,7 @@
         <v>87761.285451750999</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -7632,7 +7630,7 @@
         <v>61530.74792743256</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -7646,7 +7644,7 @@
         <v>27833.656205517433</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -7660,7 +7658,7 @@
         <v>43162.633643559544</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -7674,7 +7672,7 @@
         <v>11819.107118211414</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>18296.163773708373</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -7702,7 +7700,7 @@
         <v>34588.370823023615</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -7716,7 +7714,7 @@
         <v>13737.619460015305</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -7730,7 +7728,7 @@
         <v>56299.898848623365</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -7744,7 +7742,7 @@
         <v>74509.955671728807</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -7758,7 +7756,7 @@
         <v>84900.896952324605</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -7772,7 +7770,7 @@
         <v>11401.170879368228</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -7786,7 +7784,7 @@
         <v>65518.859149246091</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -7800,7 +7798,7 @@
         <v>90568.955780405086</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -7814,7 +7812,7 @@
         <v>12103.368444507923</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -7828,7 +7826,7 @@
         <v>58400.361252101218</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -7842,7 +7840,7 @@
         <v>85978.977340970261</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -7856,7 +7854,7 @@
         <v>33647.025328704847</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -7870,7 +7868,7 @@
         <v>60309.456045787432</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -7884,7 +7882,7 @@
         <v>31439.24745759512</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -7898,7 +7896,7 @@
         <v>45999.471792850331</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -7912,7 +7910,7 @@
         <v>37370.937289372996</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -7926,7 +7924,7 @@
         <v>60609.994928382883</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -7940,7 +7938,7 @@
         <v>4038.4490059495183</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -7954,7 +7952,7 @@
         <v>35622.51668977581</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -7968,7 +7966,7 @@
         <v>72105.513973298584</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -7982,7 +7980,7 @@
         <v>63705.283654932377</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -7996,7 +7994,7 @@
         <v>50307.407560544438</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8010,7 +8008,7 @@
         <v>97883.387233622314</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8024,7 +8022,7 @@
         <v>82512.149549634734</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8038,7 +8036,7 @@
         <v>15713.352906576805</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8052,7 +8050,7 @@
         <v>78028.194716003578</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8066,7 +8064,7 @@
         <v>72653.332675911326</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -8080,7 +8078,7 @@
         <v>73582.601233210371</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -8094,7 +8092,7 @@
         <v>12928.153149493226</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -8108,7 +8106,7 @@
         <v>71660.9167343851</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -8122,7 +8120,7 @@
         <v>54043.470207776692</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -8136,7 +8134,7 @@
         <v>83484.500911990777</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -8150,7 +8148,7 @@
         <v>6510.9158995786838</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>88781.754531186045</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -8178,7 +8176,7 @@
         <v>31640.271753296733</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>54631.005898281008</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -8206,7 +8204,7 @@
         <v>55546.091502416602</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -8220,7 +8218,7 @@
         <v>27520.640097051619</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -8234,7 +8232,7 @@
         <v>79871.218840808055</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -8248,7 +8246,7 @@
         <v>73447.916382847907</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -8262,7 +8260,7 @@
         <v>99706.847990857786</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -8276,7 +8274,7 @@
         <v>57236.391859552692</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -8290,7 +8288,7 @@
         <v>91079.990742841226</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -8304,7 +8302,7 @@
         <v>90773.979465252807</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -8318,7 +8316,7 @@
         <v>78615.394187495098</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -8332,7 +8330,7 @@
         <v>60940.504367356938</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -8346,7 +8344,7 @@
         <v>83761.915235160617</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -8360,7 +8358,7 @@
         <v>41222.55161305928</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -8374,7 +8372,7 @@
         <v>40984.094420900161</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -8388,7 +8386,7 @@
         <v>92119.386615447322</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>33720.746661446108</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -8416,7 +8414,7 @@
         <v>63677.817230214663</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -8430,7 +8428,7 @@
         <v>58545.979958491778</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -8444,7 +8442,7 @@
         <v>89947.68516864226</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -8458,7 +8456,7 @@
         <v>52312.244582805746</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>56370.332413909455</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -8486,7 +8484,7 @@
         <v>47973.097260823903</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -8500,7 +8498,7 @@
         <v>18901.959949632019</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -8514,7 +8512,7 @@
         <v>26909.878904901972</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -8528,7 +8526,7 @@
         <v>501.88634420194057</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -8542,7 +8540,7 @@
         <v>86698.494671745328</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -8556,7 +8554,7 @@
         <v>39927.048029863508</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -8570,7 +8568,7 @@
         <v>86211.974811220498</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>13543.039691365699</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -8598,7 +8596,7 @@
         <v>92830.044097280683</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>98558.85246968799</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -8626,7 +8624,7 @@
         <v>67411.754815179025</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -8640,7 +8638,7 @@
         <v>90110.041838147372</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -8654,7 +8652,7 @@
         <v>31019.485905873735</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>63986.12251622371</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -8682,7 +8680,7 @@
         <v>77671.238870882138</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -8696,7 +8694,7 @@
         <v>35061.111741529261</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -8710,7 +8708,7 @@
         <v>35372.622318182854</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -8724,7 +8722,7 @@
         <v>51823.738381333809</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>57557.422627728891</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -8752,7 +8750,7 @@
         <v>27123.705198235282</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -8766,7 +8764,7 @@
         <v>1438.7574940227576</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -8780,7 +8778,7 @@
         <v>57540.426886732821</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -8794,7 +8792,7 @@
         <v>90936.95561356796</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -8808,7 +8806,7 @@
         <v>47804.503154545855</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -8822,7 +8820,7 @@
         <v>73624.871223030757</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -8836,7 +8834,7 @@
         <v>84197.300159141087</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -8850,7 +8848,7 @@
         <v>22002.419363208326</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -8864,7 +8862,7 @@
         <v>88489.126858401869</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>48265.57150110582</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -8892,7 +8890,7 @@
         <v>87116.949438769705</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>69037.793820576771</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -8920,7 +8918,7 @@
         <v>92063.559365159526</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>9634.4135948276835</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -8948,7 +8946,7 @@
         <v>95993.943916544653</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -8962,7 +8960,7 @@
         <v>65606.177698081417</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -8976,7 +8974,7 @@
         <v>86170.269474253393</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -8990,7 +8988,7 @@
         <v>80296.355320038783</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -9004,7 +9002,7 @@
         <v>60611.619924485094</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -9018,7 +9016,7 @@
         <v>84394.350064374012</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -9032,7 +9030,7 @@
         <v>50255.895577529584</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -9046,7 +9044,7 @@
         <v>20045.804677887434</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -9060,7 +9058,7 @@
         <v>68157.817813364134</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -9074,7 +9072,7 @@
         <v>22324.566347287368</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>9043.5266060126196</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -9102,7 +9100,7 @@
         <v>68177.92601053245</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -9116,7 +9114,7 @@
         <v>39414.375550095414</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -9130,7 +9128,7 @@
         <v>89328.919271995779</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>67893.306324940728</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -9158,7 +9156,7 @@
         <v>30408.681047767685</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -9172,7 +9170,7 @@
         <v>76148.498705807026</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -9186,7 +9184,7 @@
         <v>66278.416414906125</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>28162.408548145646</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -9214,7 +9212,7 @@
         <v>29483.230171207353</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -9228,7 +9226,7 @@
         <v>46877.750798210407</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -9242,7 +9240,7 @@
         <v>11937.319848313255</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -9256,7 +9254,7 @@
         <v>78527.477928742534</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -9270,7 +9268,7 @@
         <v>38789.805434118942</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -9284,7 +9282,7 @@
         <v>40833.396227762096</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -9298,7 +9296,7 @@
         <v>20432.842648181861</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -9312,7 +9310,7 @@
         <v>34037.940267968828</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -9326,7 +9324,7 @@
         <v>19633.124550544711</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>62062.265998058661</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -9354,7 +9352,7 @@
         <v>89871.187689418701</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -9368,7 +9366,7 @@
         <v>16048.908051192189</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -9382,7 +9380,7 @@
         <v>83266.866927347481</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -9396,7 +9394,7 @@
         <v>28704.039083582968</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -9410,7 +9408,7 @@
         <v>39612.270141883331</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -9424,7 +9422,7 @@
         <v>18966.297172738676</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -9438,7 +9436,7 @@
         <v>55922.838850471868</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -9452,7 +9450,7 @@
         <v>25607.929235422143</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -9466,7 +9464,7 @@
         <v>88444.957940851848</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -9480,7 +9478,7 @@
         <v>10627.546485348916</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -9494,7 +9492,7 @@
         <v>83574.500224321557</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -9508,7 +9506,7 @@
         <v>82046.781986192684</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -9522,7 +9520,7 @@
         <v>36871.347220309755</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -9536,7 +9534,7 @@
         <v>16057.724015498121</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -9550,7 +9548,7 @@
         <v>97263.373989054933</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -9564,7 +9562,7 @@
         <v>11709.852183441961</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -9578,7 +9576,7 @@
         <v>34264.173016303088</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -9592,7 +9590,7 @@
         <v>85465.669343103684</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -9606,7 +9604,7 @@
         <v>48000.956834081946</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>57575.717626806669</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -9634,7 +9632,7 @@
         <v>55748.332508766209</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -9648,7 +9646,7 @@
         <v>10161.186940418165</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -9662,7 +9660,7 @@
         <v>81141.775811193264</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -9676,7 +9674,7 @@
         <v>27652.212679672884</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -9690,7 +9688,7 @@
         <v>96971.189811559452</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -9704,7 +9702,7 @@
         <v>27414.952785564517</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -9718,7 +9716,7 @@
         <v>87817.877792904954</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -9732,7 +9730,7 @@
         <v>73741.449211938263</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -9746,7 +9744,7 @@
         <v>99074.683373233973</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -9760,7 +9758,7 @@
         <v>19507.846092369618</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -9774,7 +9772,7 @@
         <v>709.67406381754472</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -9788,7 +9786,7 @@
         <v>93671.769786460805</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -9802,7 +9800,7 @@
         <v>1675.8554210412058</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -9816,7 +9814,7 @@
         <v>78191.051503790237</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -9830,7 +9828,7 @@
         <v>31109.555488347331</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -9844,7 +9842,7 @@
         <v>2547.2492942343551</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -9858,7 +9856,7 @@
         <v>56701.30544982088</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -9872,7 +9870,7 @@
         <v>13997.272789735327</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>38957.018019624724</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -9900,7 +9898,7 @@
         <v>64349.518352229461</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -9914,7 +9912,7 @@
         <v>22307.718079681392</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -9928,7 +9926,7 @@
         <v>99942.376294178393</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -9942,7 +9940,7 @@
         <v>39790.931223783096</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -9956,7 +9954,7 @@
         <v>63395.520187174006</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -9970,7 +9968,7 @@
         <v>62127.61165773237</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -9984,7 +9982,7 @@
         <v>62.651271396862995</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -9998,7 +9996,7 @@
         <v>94002.566000936305</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -10012,7 +10010,7 @@
         <v>45537.783455551747</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -10026,7 +10024,7 @@
         <v>37394.633718954661</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -10040,7 +10038,7 @@
         <v>8728.3943729534294</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -10054,7 +10052,7 @@
         <v>16228.165822690265</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -10068,7 +10066,7 @@
         <v>60693.839282331028</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -10082,7 +10080,7 @@
         <v>96537.366782971556</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -10096,7 +10094,7 @@
         <v>21550.509998325062</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -10110,7 +10108,7 @@
         <v>73424.715590922075</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -10124,7 +10122,7 @@
         <v>21512.00305438543</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -10138,7 +10136,7 @@
         <v>74235.754986184271</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -10152,7 +10150,7 @@
         <v>51855.795226194547</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -10166,7 +10164,7 @@
         <v>70710.187726163553</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -10180,7 +10178,7 @@
         <v>33130.14350524632</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -10194,7 +10192,7 @@
         <v>66609.747260605291</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -10208,7 +10206,7 @@
         <v>92695.4982839062</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -10222,7 +10220,7 @@
         <v>27471.085375504867</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -10236,7 +10234,7 @@
         <v>16795.383378590057</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>9134.9713620576313</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -10264,7 +10262,7 @@
         <v>14105.485491340452</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -10278,7 +10276,7 @@
         <v>3009.6412952232754</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>18377.334814055324</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -10306,7 +10304,7 @@
         <v>31699.420899580844</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -10320,7 +10318,7 @@
         <v>87066.652663086425</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -10334,7 +10332,7 @@
         <v>23194.652261982363</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -10348,7 +10346,7 @@
         <v>62988.670008504341</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -10362,7 +10360,7 @@
         <v>97193.537681312577</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -10376,7 +10374,7 @@
         <v>6231.1636793801918</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -10390,7 +10388,7 @@
         <v>74418.783737425169</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -10404,7 +10402,7 @@
         <v>53588.420936601811</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -10418,7 +10416,7 @@
         <v>4682.2446345575308</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -10432,7 +10430,7 @@
         <v>68049.040665976456</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -10446,7 +10444,7 @@
         <v>85583.445600931649</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -10460,7 +10458,7 @@
         <v>9085.1284544989139</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -10474,7 +10472,7 @@
         <v>38571.827546776214</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -10488,7 +10486,7 @@
         <v>34848.968473287619</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -10502,7 +10500,7 @@
         <v>95315.740738060413</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -10516,7 +10514,7 @@
         <v>55187.907678464624</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -10530,7 +10528,7 @@
         <v>17441.045679349008</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>58510.413340389001</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -10558,7 +10556,7 @@
         <v>88050.228025973614</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>26457.079015923602</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -10586,7 +10584,7 @@
         <v>80943.624477513004</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -10600,7 +10598,7 @@
         <v>33318.03936541258</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -10614,7 +10612,7 @@
         <v>43637.342623683398</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -10628,7 +10626,7 @@
         <v>49886.905646476996</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -10642,7 +10640,7 @@
         <v>12993.790695132289</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -10656,7 +10654,7 @@
         <v>65230.081100714888</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -10670,7 +10668,7 @@
         <v>77246.34127332257</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>8234.1644680632871</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -10698,7 +10696,7 @@
         <v>59257.414711496283</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -10712,7 +10710,7 @@
         <v>74628.522291708781</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -10726,7 +10724,7 @@
         <v>15444.943867957229</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -10740,7 +10738,7 @@
         <v>19223.763571285213</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -10754,7 +10752,7 @@
         <v>58636.996077036871</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -10768,7 +10766,7 @@
         <v>76591.686406346707</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -10782,7 +10780,7 @@
         <v>78957.31511796065</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -10796,7 +10794,7 @@
         <v>21286.322224859356</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -10810,7 +10808,7 @@
         <v>56223.858934591095</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -10824,7 +10822,7 @@
         <v>16873.131260089824</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -10838,7 +10836,7 @@
         <v>80032.042639077001</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -10852,7 +10850,7 @@
         <v>40.734520954144315</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -10866,7 +10864,7 @@
         <v>71645.861728992793</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -10880,7 +10878,7 @@
         <v>22032.977866729729</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -10894,7 +10892,7 @@
         <v>72587.490168416392</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -10908,7 +10906,7 @@
         <v>86503.29249281458</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -10922,7 +10920,7 @@
         <v>78023.280998727438</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -10936,7 +10934,7 @@
         <v>96706.005405070886</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -10950,7 +10948,7 @@
         <v>16911.126543030528</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -10964,7 +10962,7 @@
         <v>91375.840738725659</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -10978,7 +10976,7 @@
         <v>2705.8966595600477</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -10992,7 +10990,7 @@
         <v>62771.701931575393</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -11006,7 +11004,7 @@
         <v>79269.712948000932</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -11020,7 +11018,7 @@
         <v>21702.09654277331</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -11034,7 +11032,7 @@
         <v>21684.054296639843</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -11048,7 +11046,7 @@
         <v>70606.047758887318</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -11062,7 +11060,7 @@
         <v>961.60265322522423</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -11076,7 +11074,7 @@
         <v>12476.976864523782</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -11090,7 +11088,7 @@
         <v>72947.717026331389</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -11104,7 +11102,7 @@
         <v>60502.0479723791</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -11118,7 +11116,7 @@
         <v>11021.270480459667</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -11132,7 +11130,7 @@
         <v>10544.595143286628</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -11146,7 +11144,7 @@
         <v>46648.297722223564</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -11160,7 +11158,7 @@
         <v>86104.056393221384</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -11174,7 +11172,7 @@
         <v>84010.650180330966</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -11188,7 +11186,7 @@
         <v>82714.866439530961</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
@@ -11202,7 +11200,7 @@
         <v>79918.40795304066</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -11216,7 +11214,7 @@
         <v>19737.2415665771</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
@@ -11230,7 +11228,7 @@
         <v>28155.608704511793</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>542</v>
       </c>
@@ -11244,7 +11242,7 @@
         <v>1698.5967372078469</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>543</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>52327.869974680929</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
@@ -11272,7 +11270,7 @@
         <v>36262.885610069876</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -11286,7 +11284,7 @@
         <v>71353.28089196315</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
@@ -11300,7 +11298,7 @@
         <v>46488.931297507464</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -11314,7 +11312,7 @@
         <v>12988.53732575369</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
@@ -11328,7 +11326,7 @@
         <v>99644.491243210679</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
@@ -11342,7 +11340,7 @@
         <v>7953.3296633928603</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
@@ -11356,7 +11354,7 @@
         <v>94846.149263826446</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -11370,7 +11368,7 @@
         <v>63702.718261419825</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -11384,7 +11382,7 @@
         <v>91346.066123885001</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
@@ -11398,7 +11396,7 @@
         <v>64170.315652990896</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -11412,7 +11410,7 @@
         <v>57840.699241198767</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>61968.337192534229</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
@@ -11440,7 +11438,7 @@
         <v>63729.849240846903</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -11454,7 +11452,7 @@
         <v>4894.9318520692841</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -11468,7 +11466,7 @@
         <v>26954.072496339275</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
@@ -11482,7 +11480,7 @@
         <v>41871.4496802699</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>560</v>
       </c>
@@ -11496,7 +11494,7 @@
         <v>36100.918657523274</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
@@ -11510,7 +11508,7 @@
         <v>63263.832272716056</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
@@ -11524,7 +11522,7 @@
         <v>69218.613307959822</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
@@ -11538,7 +11536,7 @@
         <v>80097.205484516569</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>564</v>
       </c>
@@ -11552,7 +11550,7 @@
         <v>58625.62272296501</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
@@ -11566,7 +11564,7 @@
         <v>49969.995515022434</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>566</v>
       </c>
@@ -11580,7 +11578,7 @@
         <v>48153.213784611791</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
@@ -11594,7 +11592,7 @@
         <v>20027.227685397287</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>568</v>
       </c>
@@ -11608,7 +11606,7 @@
         <v>14248.991749486617</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
@@ -11622,7 +11620,7 @@
         <v>90908.817041913208</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>570</v>
       </c>
@@ -11636,7 +11634,7 @@
         <v>88121.727355064271</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>571</v>
       </c>
@@ -11650,7 +11648,7 @@
         <v>78942.752322218279</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>572</v>
       </c>
@@ -11664,7 +11662,7 @@
         <v>60984.213364388837</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
@@ -11678,7 +11676,7 @@
         <v>55940.788212004474</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>574</v>
       </c>
@@ -11692,7 +11690,7 @@
         <v>86742.712632292823</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
@@ -11706,7 +11704,7 @@
         <v>54179.735302246801</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>576</v>
       </c>
@@ -11720,7 +11718,7 @@
         <v>93333.684334087069</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>577</v>
       </c>
@@ -11734,7 +11732,7 @@
         <v>70460.252034682824</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>578</v>
       </c>
@@ -11748,7 +11746,7 @@
         <v>96426.080283233518</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>579</v>
       </c>
@@ -11762,7 +11760,7 @@
         <v>50686.787158243111</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
@@ -11776,7 +11774,7 @@
         <v>20630.507215384619</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>581</v>
       </c>
@@ -11790,7 +11788,7 @@
         <v>8997.3731270936769</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
@@ -11804,7 +11802,7 @@
         <v>59926.039695659572</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>583</v>
       </c>
@@ -11818,7 +11816,7 @@
         <v>75526.904812529639</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>584</v>
       </c>
@@ -11832,7 +11830,7 @@
         <v>37991.057739415446</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
@@ -11846,7 +11844,7 @@
         <v>23229.719340066524</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>586</v>
       </c>
@@ -11860,7 +11858,7 @@
         <v>88241.996365918429</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>587</v>
       </c>
@@ -11874,7 +11872,7 @@
         <v>11349.135803779009</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>588</v>
       </c>
@@ -11888,7 +11886,7 @@
         <v>15463.137338265831</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
@@ -11902,7 +11900,7 @@
         <v>73112.852809282282</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>590</v>
       </c>
@@ -11916,7 +11914,7 @@
         <v>75656.194171487834</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>591</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>26761.604836550923</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>592</v>
       </c>
@@ -11944,7 +11942,7 @@
         <v>59916.819287758204</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>593</v>
       </c>
@@ -11958,7 +11956,7 @@
         <v>17897.482631745464</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
@@ -11972,7 +11970,7 @@
         <v>72470.365986200937</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>595</v>
       </c>
@@ -11986,7 +11984,7 @@
         <v>9955.7552276208662</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>596</v>
       </c>
@@ -12000,7 +11998,7 @@
         <v>61939.721407005985</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>597</v>
       </c>
@@ -12014,7 +12012,7 @@
         <v>90412.027211223147</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>598</v>
       </c>
@@ -12028,7 +12026,7 @@
         <v>74005.685466638664</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>599</v>
       </c>
@@ -12042,7 +12040,7 @@
         <v>27000.789760342235</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>600</v>
       </c>
@@ -12056,7 +12054,7 @@
         <v>51767.445687728927</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>601</v>
       </c>
@@ -12070,7 +12068,7 @@
         <v>4687.1601336863296</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>602</v>
       </c>
@@ -12084,7 +12082,7 @@
         <v>32847.257069084182</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>603</v>
       </c>
@@ -12098,7 +12096,7 @@
         <v>78471.355811243455</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>604</v>
       </c>
@@ -12112,7 +12110,7 @@
         <v>62505.916040642041</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>605</v>
       </c>
@@ -12126,7 +12124,7 @@
         <v>64316.244367588537</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
@@ -12140,7 +12138,7 @@
         <v>43895.085579550156</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>607</v>
       </c>
@@ -12154,7 +12152,7 @@
         <v>75626.777004570322</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>608</v>
       </c>
@@ -12168,7 +12166,7 @@
         <v>99968.338363005154</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
@@ -12182,7 +12180,7 @@
         <v>85941.990645064419</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
@@ -12196,7 +12194,7 @@
         <v>46774.83625654046</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
@@ -12210,7 +12208,7 @@
         <v>84721.020652730862</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>612</v>
       </c>
@@ -12224,7 +12222,7 @@
         <v>51413.980121055225</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
@@ -12238,7 +12236,7 @@
         <v>3761.3900484457117</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>614</v>
       </c>
@@ -12252,7 +12250,7 @@
         <v>46845.595053059253</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
@@ -12266,7 +12264,7 @@
         <v>34570.618357362306</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>616</v>
       </c>
@@ -12280,7 +12278,7 @@
         <v>21018.330067175219</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>617</v>
       </c>
@@ -12294,7 +12292,7 @@
         <v>88619.74331765472</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>618</v>
       </c>
@@ -12308,7 +12306,7 @@
         <v>9447.6773552976574</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
@@ -12322,7 +12320,7 @@
         <v>44003.35058105753</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>620</v>
       </c>
@@ -12336,7 +12334,7 @@
         <v>99068.242016642311</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
@@ -12350,7 +12348,7 @@
         <v>75460.911486363475</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>
@@ -12364,7 +12362,7 @@
         <v>51151.010221957651</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>623</v>
       </c>
@@ -12378,7 +12376,7 @@
         <v>88222.117881897779</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>624</v>
       </c>
@@ -12392,7 +12390,7 @@
         <v>68653.556752263627</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>625</v>
       </c>
@@ -12406,7 +12404,7 @@
         <v>2286.7285871192244</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>626</v>
       </c>
@@ -12420,7 +12418,7 @@
         <v>64103.696998436542</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>627</v>
       </c>
@@ -12434,7 +12432,7 @@
         <v>18591.506796075842</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>628</v>
       </c>
@@ -12448,7 +12446,7 @@
         <v>36175.104548043179</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>629</v>
       </c>
@@ -12462,7 +12460,7 @@
         <v>42150.56344499284</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>630</v>
       </c>
@@ -12476,7 +12474,7 @@
         <v>87894.913184996825</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>631</v>
       </c>
@@ -12490,7 +12488,7 @@
         <v>87345.178073956558</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>632</v>
       </c>
@@ -12504,7 +12502,7 @@
         <v>13434.441433500144</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>633</v>
       </c>
@@ -12518,7 +12516,7 @@
         <v>34545.530492106111</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>634</v>
       </c>
@@ -12532,7 +12530,7 @@
         <v>71869.858341345782</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>635</v>
       </c>
@@ -12546,7 +12544,7 @@
         <v>47236.247610326122</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>636</v>
       </c>
@@ -12560,7 +12558,7 @@
         <v>82048.434489837804</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>637</v>
       </c>
@@ -12574,7 +12572,7 @@
         <v>19869.269778640297</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>638</v>
       </c>
@@ -12588,7 +12586,7 @@
         <v>79555.254620136911</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>639</v>
       </c>
@@ -12602,7 +12600,7 @@
         <v>38600.909891678988</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>640</v>
       </c>
@@ -12616,7 +12614,7 @@
         <v>68420.043157335545</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>641</v>
       </c>
@@ -12630,7 +12628,7 @@
         <v>60889.103492313625</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>642</v>
       </c>
@@ -12644,7 +12642,7 @@
         <v>1825.737154582363</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>643</v>
       </c>
@@ -12658,7 +12656,7 @@
         <v>39139.454196464743</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>644</v>
       </c>
@@ -12672,7 +12670,7 @@
         <v>18375.342335309731</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>645</v>
       </c>
@@ -12686,7 +12684,7 @@
         <v>21205.156306777175</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>646</v>
       </c>
@@ -12700,7 +12698,7 @@
         <v>331.20563816348982</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>647</v>
       </c>
@@ -12714,7 +12712,7 @@
         <v>2758.1572029463432</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>648</v>
       </c>
@@ -12728,7 +12726,7 @@
         <v>92008.002939313956</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>649</v>
       </c>
@@ -12742,7 +12740,7 @@
         <v>9780.289595378199</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>650</v>
       </c>
@@ -12756,7 +12754,7 @@
         <v>90159.890875929254</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>651</v>
       </c>
@@ -12770,7 +12768,7 @@
         <v>95204.52439654214</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>652</v>
       </c>
@@ -12784,7 +12782,7 @@
         <v>21574.145933143907</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>653</v>
       </c>
@@ -12798,7 +12796,7 @@
         <v>23946.103739941926</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>654</v>
       </c>
@@ -12812,7 +12810,7 @@
         <v>77095.010862914976</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>655</v>
       </c>
@@ -12826,7 +12824,7 @@
         <v>35946.377783489879</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>656</v>
       </c>
@@ -12840,7 +12838,7 @@
         <v>36899.809220910385</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>657</v>
       </c>
@@ -12854,7 +12852,7 @@
         <v>38958.836057055458</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>658</v>
       </c>
@@ -12868,7 +12866,7 @@
         <v>49862.269821551039</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>659</v>
       </c>
@@ -12882,7 +12880,7 @@
         <v>35586.230579803145</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>660</v>
       </c>
@@ -12896,7 +12894,7 @@
         <v>93398.913574600243</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>661</v>
       </c>
@@ -12910,7 +12908,7 @@
         <v>5574.4556717533196</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>662</v>
       </c>
@@ -12924,7 +12922,7 @@
         <v>85690.795393963243</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>663</v>
       </c>
@@ -12938,7 +12936,7 @@
         <v>34881.677513666553</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>664</v>
       </c>
@@ -12952,7 +12950,7 @@
         <v>58469.69182395294</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>665</v>
       </c>
@@ -12966,7 +12964,7 @@
         <v>73964.836732033407</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>666</v>
       </c>
@@ -12980,7 +12978,7 @@
         <v>74627.553191680461</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>667</v>
       </c>
@@ -12994,7 +12992,7 @@
         <v>88914.362185200371</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>668</v>
       </c>
@@ -13008,7 +13006,7 @@
         <v>52360.352076344971</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>669</v>
       </c>
@@ -13022,7 +13020,7 @@
         <v>39637.309552348765</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>670</v>
       </c>
@@ -13036,7 +13034,7 @@
         <v>20330.894646101071</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>671</v>
       </c>
@@ -13050,7 +13048,7 @@
         <v>45146.452280505131</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>672</v>
       </c>
@@ -13064,7 +13062,7 @@
         <v>42815.008883823328</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>673</v>
       </c>
@@ -13078,7 +13076,7 @@
         <v>80947.975149891252</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>674</v>
       </c>
@@ -13092,7 +13090,7 @@
         <v>40721.898520239578</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>675</v>
       </c>
@@ -13106,7 +13104,7 @@
         <v>30883.68396946475</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>676</v>
       </c>
@@ -13120,7 +13118,7 @@
         <v>11882.26200970215</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>677</v>
       </c>
@@ -13134,7 +13132,7 @@
         <v>25157.284105715538</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>678</v>
       </c>
@@ -13148,7 +13146,7 @@
         <v>72285.6832246712</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>679</v>
       </c>
@@ -13162,7 +13160,7 @@
         <v>13417.762819467072</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>680</v>
       </c>
@@ -13176,7 +13174,7 @@
         <v>92309.711239191383</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>681</v>
       </c>
@@ -13190,7 +13188,7 @@
         <v>13610.873291648406</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>682</v>
       </c>
@@ -13204,7 +13202,7 @@
         <v>76199.502734862355</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>683</v>
       </c>
@@ -13218,7 +13216,7 @@
         <v>1709.5353727889951</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>684</v>
       </c>
@@ -13232,7 +13230,7 @@
         <v>91309.470985711989</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>685</v>
       </c>
@@ -13246,7 +13244,7 @@
         <v>17230.335882318461</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>686</v>
       </c>
@@ -13260,7 +13258,7 @@
         <v>98273.418090531588</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>687</v>
       </c>
@@ -13274,7 +13272,7 @@
         <v>20243.706184198727</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>688</v>
       </c>
@@ -13288,7 +13286,7 @@
         <v>81228.057001294888</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>689</v>
       </c>
@@ -13302,7 +13300,7 @@
         <v>49068.211524062463</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>690</v>
       </c>
@@ -13316,7 +13314,7 @@
         <v>32108.421810159092</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>691</v>
       </c>
@@ -13330,7 +13328,7 @@
         <v>30538.37408929061</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>692</v>
       </c>
@@ -13344,7 +13342,7 @@
         <v>17993.975116046367</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>693</v>
       </c>
@@ -13358,7 +13356,7 @@
         <v>6902.4776487887075</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>694</v>
       </c>
@@ -13372,7 +13370,7 @@
         <v>8826.514549112364</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>695</v>
       </c>
@@ -13386,7 +13384,7 @@
         <v>34870.198123259936</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>696</v>
       </c>
@@ -13400,7 +13398,7 @@
         <v>7505.2370925329906</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>697</v>
       </c>
@@ -13414,7 +13412,7 @@
         <v>94125.800689830721</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>698</v>
       </c>
@@ -13428,7 +13426,7 @@
         <v>13904.8681995676</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>699</v>
       </c>
@@ -13442,7 +13440,7 @@
         <v>36914.620399281819</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>700</v>
       </c>
@@ -13456,7 +13454,7 @@
         <v>71220.054354503227</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>701</v>
       </c>
@@ -13470,7 +13468,7 @@
         <v>2439.1859300656906</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>702</v>
       </c>
@@ -13484,7 +13482,7 @@
         <v>99873.858029278301</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>703</v>
       </c>
@@ -13498,7 +13496,7 @@
         <v>44037.789911521584</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>704</v>
       </c>
@@ -13512,7 +13510,7 @@
         <v>46125.672935145267</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>705</v>
       </c>
@@ -13526,7 +13524,7 @@
         <v>98744.569216357835</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>706</v>
       </c>
@@ -13540,7 +13538,7 @@
         <v>62924.675263071149</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>707</v>
       </c>
@@ -13554,7 +13552,7 @@
         <v>56405.398292331913</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>708</v>
       </c>
@@ -13568,7 +13566,7 @@
         <v>29765.012962162029</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>709</v>
       </c>
@@ -13582,7 +13580,7 @@
         <v>9530.9282655962943</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>710</v>
       </c>
@@ -13596,7 +13594,7 @@
         <v>78366.777024491268</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>711</v>
       </c>
@@ -13610,7 +13608,7 @@
         <v>5326.66295256794</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>712</v>
       </c>
@@ -13624,7 +13622,7 @@
         <v>80986.787540616671</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>713</v>
       </c>
@@ -13638,7 +13636,7 @@
         <v>77423.542774796791</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>714</v>
       </c>
@@ -13652,7 +13650,7 @@
         <v>48941.050119721054</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>715</v>
       </c>
@@ -13666,7 +13664,7 @@
         <v>47080.588886056328</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>716</v>
       </c>
@@ -13680,7 +13678,7 @@
         <v>93776.22941586838</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>717</v>
       </c>
@@ -13694,7 +13692,7 @@
         <v>10051.190511289309</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>718</v>
       </c>
@@ -13708,7 +13706,7 @@
         <v>37700.548155793447</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>719</v>
       </c>
@@ -13722,7 +13720,7 @@
         <v>24584.4099932067</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>720</v>
       </c>
@@ -13736,7 +13734,7 @@
         <v>6081.2705668601193</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>721</v>
       </c>
@@ -13750,7 +13748,7 @@
         <v>76579.500698924458</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>722</v>
       </c>
@@ -13764,7 +13762,7 @@
         <v>17019.576081237763</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>723</v>
       </c>
@@ -13778,7 +13776,7 @@
         <v>27190.433182362205</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>724</v>
       </c>
@@ -13792,7 +13790,7 @@
         <v>57053.276997952242</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>725</v>
       </c>
@@ -13806,7 +13804,7 @@
         <v>39878.553130084169</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>726</v>
       </c>
@@ -13820,7 +13818,7 @@
         <v>59409.963649956764</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>727</v>
       </c>
@@ -13834,7 +13832,7 @@
         <v>47777.172134956825</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>728</v>
       </c>
@@ -13848,7 +13846,7 @@
         <v>14244.712109553959</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>729</v>
       </c>
@@ -13862,7 +13860,7 @@
         <v>64622.519002477216</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>730</v>
       </c>
@@ -13876,7 +13874,7 @@
         <v>66339.32434823837</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>731</v>
       </c>
@@ -13890,7 +13888,7 @@
         <v>181.2171728392542</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>732</v>
       </c>
@@ -13904,7 +13902,7 @@
         <v>93896.399624928643</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>733</v>
       </c>
@@ -13918,7 +13916,7 @@
         <v>34381.532526897638</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>734</v>
       </c>
@@ -13932,7 +13930,7 @@
         <v>99680.096069331281</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>735</v>
       </c>
@@ -13946,7 +13944,7 @@
         <v>23570.735925092467</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>736</v>
       </c>
@@ -13960,7 +13958,7 @@
         <v>19473.227698293362</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>737</v>
       </c>
@@ -13974,7 +13972,7 @@
         <v>2358.3027382458431</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>738</v>
       </c>
@@ -13988,7 +13986,7 @@
         <v>81940.758405844201</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>739</v>
       </c>
@@ -14002,7 +14000,7 @@
         <v>5638.529137123438</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>740</v>
       </c>
@@ -14016,7 +14014,7 @@
         <v>67619.304570923909</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>741</v>
       </c>
@@ -14030,7 +14028,7 @@
         <v>87481.909834827398</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>742</v>
       </c>
@@ -14044,7 +14042,7 @@
         <v>25303.191349659748</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>743</v>
       </c>
@@ -14058,7 +14056,7 @@
         <v>87453.944547647741</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>744</v>
       </c>
@@ -14072,7 +14070,7 @@
         <v>65444.087559024134</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>745</v>
       </c>
@@ -14086,7 +14084,7 @@
         <v>53182.186805309328</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>746</v>
       </c>
@@ -14100,7 +14098,7 @@
         <v>15389.100581226823</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>747</v>
       </c>
@@ -14114,7 +14112,7 @@
         <v>41235.832924125585</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>748</v>
       </c>
@@ -14128,7 +14126,7 @@
         <v>48587.51917094177</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>749</v>
       </c>
@@ -14142,7 +14140,7 @@
         <v>5621.1414178734212</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>750</v>
       </c>
@@ -14156,7 +14154,7 @@
         <v>52927.866479201046</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
@@ -14170,7 +14168,7 @@
         <v>81716.937493288191</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
@@ -14184,7 +14182,7 @@
         <v>4421.5850199960551</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
@@ -14198,7 +14196,7 @@
         <v>74611.760198592456</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
@@ -14212,7 +14210,7 @@
         <v>54332.98300442475</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
@@ -14226,7 +14224,7 @@
         <v>68537.701052555014</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>756</v>
       </c>
@@ -14240,7 +14238,7 @@
         <v>58247.904515453942</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>757</v>
       </c>
@@ -14254,7 +14252,7 @@
         <v>78386.962189075057</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>758</v>
       </c>
@@ -14268,7 +14266,7 @@
         <v>43247.752180982243</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
@@ -14282,7 +14280,7 @@
         <v>18438.193973016405</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>760</v>
       </c>
@@ -14296,7 +14294,7 @@
         <v>31180.351086062896</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>761</v>
       </c>
@@ -14310,7 +14308,7 @@
         <v>63199.636845965324</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>762</v>
       </c>
@@ -14324,7 +14322,7 @@
         <v>31718.234097157281</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>763</v>
       </c>
@@ -14338,7 +14336,7 @@
         <v>66613.728541576507</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
@@ -14352,7 +14350,7 @@
         <v>71543.785694903563</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
@@ -14366,7 +14364,7 @@
         <v>33414.679578200259</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>766</v>
       </c>
@@ -14380,7 +14378,7 @@
         <v>24644.886055859683</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>767</v>
       </c>
@@ -14394,7 +14392,7 @@
         <v>11050.261369729242</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>768</v>
       </c>
@@ -14408,7 +14406,7 @@
         <v>57222.210962710582</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>769</v>
       </c>
@@ -14422,7 +14420,7 @@
         <v>27891.3474452831</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>770</v>
       </c>
@@ -14436,7 +14434,7 @@
         <v>18597.656326613054</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>771</v>
       </c>
@@ -14450,7 +14448,7 @@
         <v>76310.962049896785</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>772</v>
       </c>
@@ -14464,7 +14462,7 @@
         <v>35972.178798702895</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>773</v>
       </c>
@@ -14478,7 +14476,7 @@
         <v>60216.410648683304</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>774</v>
       </c>
@@ -14492,7 +14490,7 @@
         <v>25172.176769918231</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>775</v>
       </c>
@@ -14506,7 +14504,7 @@
         <v>13423.426649123459</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>776</v>
       </c>
@@ -14520,7 +14518,7 @@
         <v>47544.913802571486</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>777</v>
       </c>
@@ -14534,7 +14532,7 @@
         <v>17569.609814243424</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>778</v>
       </c>
@@ -14548,7 +14546,7 @@
         <v>44360.856772737447</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>779</v>
       </c>
@@ -14562,7 +14560,7 @@
         <v>16091.864052229443</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>780</v>
       </c>
@@ -14576,7 +14574,7 @@
         <v>81993.184141935853</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>781</v>
       </c>
@@ -14590,7 +14588,7 @@
         <v>89400.282608349313</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>782</v>
       </c>
@@ -14604,7 +14602,7 @@
         <v>86507.304059793212</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>783</v>
       </c>
@@ -14618,7 +14616,7 @@
         <v>5850.9027425729164</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>784</v>
       </c>
@@ -14632,7 +14630,7 @@
         <v>43111.315389985561</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>785</v>
       </c>
@@ -14646,7 +14644,7 @@
         <v>36904.092185672569</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>786</v>
       </c>
@@ -14660,7 +14658,7 @@
         <v>50587.543121661249</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>787</v>
       </c>
@@ -14674,7 +14672,7 @@
         <v>98468.824747599749</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>788</v>
       </c>
@@ -14688,7 +14686,7 @@
         <v>71979.135659159612</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>789</v>
       </c>
@@ -14702,7 +14700,7 @@
         <v>20987.365657402246</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>790</v>
       </c>
@@ -14716,7 +14714,7 @@
         <v>45609.606482879673</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>791</v>
       </c>
@@ -14730,7 +14728,7 @@
         <v>99631.829838782694</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>792</v>
       </c>
@@ -14744,7 +14742,7 @@
         <v>94158.074378955003</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>793</v>
       </c>
@@ -14758,7 +14756,7 @@
         <v>54573.001093256047</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>794</v>
       </c>
@@ -14772,7 +14770,7 @@
         <v>37204.90408072534</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>795</v>
       </c>
@@ -14786,7 +14784,7 @@
         <v>9611.6459781342874</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>796</v>
       </c>
@@ -14800,7 +14798,7 @@
         <v>57212.542818640963</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>797</v>
       </c>
@@ -14814,7 +14812,7 @@
         <v>54981.994576116922</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>798</v>
       </c>
@@ -14828,7 +14826,7 @@
         <v>72301.844658733768</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>799</v>
       </c>
@@ -14842,7 +14840,7 @@
         <v>44563.583360172743</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>800</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>71709.90607104337</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>801</v>
       </c>
@@ -14870,7 +14868,7 @@
         <v>3729.668533242947</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>802</v>
       </c>
@@ -14884,7 +14882,7 @@
         <v>11390.496942017169</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>803</v>
       </c>
@@ -14898,7 +14896,7 @@
         <v>11082.414759535997</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>804</v>
       </c>
@@ -14912,7 +14910,7 @@
         <v>43123.826817153167</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>805</v>
       </c>
@@ -14926,7 +14924,7 @@
         <v>60580.212477635694</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>806</v>
       </c>
@@ -14940,7 +14938,7 @@
         <v>88564.894258072309</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>807</v>
       </c>
@@ -14954,7 +14952,7 @@
         <v>25961.197871218112</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>808</v>
       </c>
@@ -14968,7 +14966,7 @@
         <v>66721.476663709007</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>809</v>
       </c>
@@ -14982,7 +14980,7 @@
         <v>36817.059916359976</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>810</v>
       </c>
@@ -14996,7 +14994,7 @@
         <v>79156.262255828697</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>811</v>
       </c>
@@ -15010,7 +15008,7 @@
         <v>35921.643826302585</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>812</v>
       </c>
@@ -15024,7 +15022,7 @@
         <v>24795.0436531327</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>813</v>
       </c>
@@ -15038,7 +15036,7 @@
         <v>11928.31269118948</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>814</v>
       </c>
@@ -15052,7 +15050,7 @@
         <v>98136.017004525784</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>815</v>
       </c>
@@ -15066,7 +15064,7 @@
         <v>3403.8944524880321</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>816</v>
       </c>
@@ -15080,7 +15078,7 @@
         <v>97937.975102823621</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>817</v>
       </c>
@@ -15094,7 +15092,7 @@
         <v>98275.105293047527</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>818</v>
       </c>
@@ -15108,7 +15106,7 @@
         <v>61735.157805263065</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>819</v>
       </c>
@@ -15122,7 +15120,7 @@
         <v>71343.54446837632</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>820</v>
       </c>
@@ -15136,7 +15134,7 @@
         <v>66821.366451870286</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>821</v>
       </c>
@@ -15150,7 +15148,7 @@
         <v>70408.167286131822</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>822</v>
       </c>
@@ -15164,7 +15162,7 @@
         <v>23818.831659598662</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>823</v>
       </c>
@@ -15178,7 +15176,7 @@
         <v>23718.692945728304</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>824</v>
       </c>
@@ -15192,7 +15190,7 @@
         <v>95398.069175455021</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>825</v>
       </c>
@@ -15206,7 +15204,7 @@
         <v>59585.496341591002</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>826</v>
       </c>
@@ -15220,7 +15218,7 @@
         <v>6519.9039459259202</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>827</v>
       </c>
@@ -15234,7 +15232,7 @@
         <v>37496.327375268556</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>828</v>
       </c>
@@ -15248,7 +15246,7 @@
         <v>34611.025135713455</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>829</v>
       </c>
@@ -15262,7 +15260,7 @@
         <v>28406.103707788687</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>830</v>
       </c>
@@ -15276,7 +15274,7 @@
         <v>64232.38883646638</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>831</v>
       </c>
@@ -15290,7 +15288,7 @@
         <v>74709.231414180438</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>832</v>
       </c>
@@ -15304,7 +15302,7 @@
         <v>96107.578020668763</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>833</v>
       </c>
@@ -15318,7 +15316,7 @@
         <v>82712.734808836525</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>834</v>
       </c>
@@ -15332,7 +15330,7 @@
         <v>16676.391832889116</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>835</v>
       </c>
@@ -15346,7 +15344,7 @@
         <v>10759.174966470408</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>836</v>
       </c>
@@ -15360,7 +15358,7 @@
         <v>12209.189366910266</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>837</v>
       </c>
@@ -15374,7 +15372,7 @@
         <v>74606.533502892969</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>838</v>
       </c>
@@ -15388,7 +15386,7 @@
         <v>11320.151755258046</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>839</v>
       </c>
@@ -15402,7 +15400,7 @@
         <v>51755.789295524155</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>840</v>
       </c>
@@ -15416,7 +15414,7 @@
         <v>63553.427741581727</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>841</v>
       </c>
@@ -15430,7 +15428,7 @@
         <v>720.01517346977903</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>842</v>
       </c>
@@ -15444,7 +15442,7 @@
         <v>12769.935290363986</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>843</v>
       </c>
@@ -15458,7 +15456,7 @@
         <v>89538.190486911422</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>844</v>
       </c>
@@ -15472,7 +15470,7 @@
         <v>37362.570791460479</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>845</v>
       </c>
@@ -15486,7 +15484,7 @@
         <v>8246.1462499585632</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>846</v>
       </c>
@@ -15500,7 +15498,7 @@
         <v>88276.71730600539</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>847</v>
       </c>
@@ -15514,7 +15512,7 @@
         <v>66940.39343460885</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>848</v>
       </c>
@@ -15528,7 +15526,7 @@
         <v>47560.148830531813</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>849</v>
       </c>
@@ -15542,7 +15540,7 @@
         <v>52076.275774695183</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>850</v>
       </c>
@@ -15556,7 +15554,7 @@
         <v>28308.962933349012</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>851</v>
       </c>
@@ -15570,7 +15568,7 @@
         <v>93983.853285895151</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>852</v>
       </c>
@@ -15584,7 +15582,7 @@
         <v>55824.407471739956</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>853</v>
       </c>
@@ -15598,7 +15596,7 @@
         <v>51443.899050477885</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>854</v>
       </c>
@@ -15612,7 +15610,7 @@
         <v>59457.766556199895</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>855</v>
       </c>
@@ -15626,7 +15624,7 @@
         <v>81150.325164569367</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>856</v>
       </c>
@@ -15640,7 +15638,7 @@
         <v>23563.884108677601</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>857</v>
       </c>
@@ -15654,7 +15652,7 @@
         <v>14840.646073767693</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>858</v>
       </c>
@@ -15668,7 +15666,7 @@
         <v>13991.789040715474</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>859</v>
       </c>
@@ -15682,7 +15680,7 @@
         <v>9705.5376304429501</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>860</v>
       </c>
@@ -15696,7 +15694,7 @@
         <v>43099.44919106512</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>861</v>
       </c>
@@ -15710,7 +15708,7 @@
         <v>25199.879650309766</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>862</v>
       </c>
@@ -15724,7 +15722,7 @@
         <v>54418.693754063432</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>863</v>
       </c>
@@ -15738,7 +15736,7 @@
         <v>90263.173828863772</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>864</v>
       </c>
@@ -15752,7 +15750,7 @@
         <v>90848.683570227178</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>865</v>
       </c>
@@ -15766,7 +15764,7 @@
         <v>14802.358457398768</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>866</v>
       </c>
@@ -15780,7 +15778,7 @@
         <v>13743.040191311851</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>867</v>
       </c>
@@ -15794,7 +15792,7 @@
         <v>61678.551108143532</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>868</v>
       </c>
@@ -15808,7 +15806,7 @@
         <v>1540.1829006094658</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>869</v>
       </c>
@@ -15822,7 +15820,7 @@
         <v>67110.692682209308</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>870</v>
       </c>
@@ -15836,7 +15834,7 @@
         <v>19451.625623357315</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>871</v>
       </c>
@@ -15850,7 +15848,7 @@
         <v>82712.407140985888</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>872</v>
       </c>
@@ -15864,7 +15862,7 @@
         <v>60870.709433862656</v>
       </c>
     </row>
-    <row r="875" spans="1:4">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>873</v>
       </c>
@@ -15878,7 +15876,7 @@
         <v>67911.595279846821</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>874</v>
       </c>
@@ -15892,7 +15890,7 @@
         <v>82474.681259814141</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>875</v>
       </c>
@@ -15906,7 +15904,7 @@
         <v>14027.66819000032</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>876</v>
       </c>
@@ -15920,7 +15918,7 @@
         <v>20672.303179559305</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>877</v>
       </c>
@@ -15934,7 +15932,7 @@
         <v>54970.594251906732</v>
       </c>
     </row>
-    <row r="880" spans="1:4">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>878</v>
       </c>
@@ -15948,7 +15946,7 @@
         <v>47101.171987932044</v>
       </c>
     </row>
-    <row r="881" spans="1:4">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>879</v>
       </c>
@@ -15962,7 +15960,7 @@
         <v>2252.844995982306</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>880</v>
       </c>
@@ -15976,7 +15974,7 @@
         <v>52573.429396646978</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>881</v>
       </c>
@@ -15990,7 +15988,7 @@
         <v>60530.769378359037</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>882</v>
       </c>
@@ -16004,7 +16002,7 @@
         <v>45498.281118261621</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>883</v>
       </c>
@@ -16018,7 +16016,7 @@
         <v>38962.110007620598</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>884</v>
       </c>
@@ -16032,7 +16030,7 @@
         <v>19055.495189715009</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>885</v>
       </c>
@@ -16046,7 +16044,7 @@
         <v>48193.076399019134</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>886</v>
       </c>
@@ -16060,7 +16058,7 @@
         <v>47130.858945621854</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>887</v>
       </c>
@@ -16074,7 +16072,7 @@
         <v>59990.72483225014</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>888</v>
       </c>
@@ -16088,7 +16086,7 @@
         <v>35418.411870295509</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>889</v>
       </c>
@@ -16102,7 +16100,7 @@
         <v>96873.899687052777</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>890</v>
       </c>
@@ -16116,7 +16114,7 @@
         <v>46618.259634724789</v>
       </c>
     </row>
-    <row r="893" spans="1:4">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>891</v>
       </c>
@@ -16130,7 +16128,7 @@
         <v>62087.83207242663</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>892</v>
       </c>
@@ -16144,7 +16142,7 @@
         <v>99864.929806173212</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>893</v>
       </c>
@@ -16158,7 +16156,7 @@
         <v>32831.722459456178</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>894</v>
       </c>
@@ -16172,7 +16170,7 @@
         <v>81644.50184881709</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>895</v>
       </c>
@@ -16186,7 +16184,7 @@
         <v>60667.593869627191</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>896</v>
       </c>
@@ -16200,7 +16198,7 @@
         <v>30710.141082058584</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>897</v>
       </c>
@@ -16214,7 +16212,7 @@
         <v>34232.616219555421</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>898</v>
       </c>
@@ -16228,7 +16226,7 @@
         <v>15188.39049424352</v>
       </c>
     </row>
-    <row r="901" spans="1:4">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>899</v>
       </c>
@@ -16242,7 +16240,7 @@
         <v>52989.781722223197</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>900</v>
       </c>
@@ -16256,7 +16254,7 @@
         <v>30399.234763717621</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>901</v>
       </c>
@@ -16270,7 +16268,7 @@
         <v>49599.202371290208</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>902</v>
       </c>
@@ -16284,7 +16282,7 @@
         <v>24151.114007853546</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>903</v>
       </c>
@@ -16298,7 +16296,7 @@
         <v>42348.37385429495</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>904</v>
       </c>
@@ -16312,7 +16310,7 @@
         <v>57212.210905329906</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>905</v>
       </c>
@@ -16326,7 +16324,7 @@
         <v>88549.292702985593</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>906</v>
       </c>
@@ -16340,7 +16338,7 @@
         <v>78596.51351770811</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>907</v>
       </c>
@@ -16354,7 +16352,7 @@
         <v>96446.923172147071</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>908</v>
       </c>
@@ -16368,7 +16366,7 @@
         <v>51265.881023739457</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>909</v>
       </c>
@@ -16382,7 +16380,7 @@
         <v>39802.558606393766</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>910</v>
       </c>
@@ -16396,7 +16394,7 @@
         <v>29955.189805678929</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>911</v>
       </c>
@@ -16410,7 +16408,7 @@
         <v>38545.083666797451</v>
       </c>
     </row>
-    <row r="914" spans="1:4">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>912</v>
       </c>
@@ -16424,7 +16422,7 @@
         <v>24927.778011558032</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>913</v>
       </c>
@@ -16438,7 +16436,7 @@
         <v>20320.176063696428</v>
       </c>
     </row>
-    <row r="916" spans="1:4">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>914</v>
       </c>
@@ -16452,7 +16450,7 @@
         <v>74128.322020790409</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>915</v>
       </c>
@@ -16466,7 +16464,7 @@
         <v>86375.87363074637</v>
       </c>
     </row>
-    <row r="918" spans="1:4">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>916</v>
       </c>
@@ -16480,7 +16478,7 @@
         <v>37830.493340176115</v>
       </c>
     </row>
-    <row r="919" spans="1:4">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>917</v>
       </c>
@@ -16494,7 +16492,7 @@
         <v>61294.373578443563</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>918</v>
       </c>
@@ -16508,7 +16506,7 @@
         <v>26292.909779003538</v>
       </c>
     </row>
-    <row r="921" spans="1:4">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>919</v>
       </c>
@@ -16522,7 +16520,7 @@
         <v>41234.312200821412</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>920</v>
       </c>
@@ -16536,7 +16534,7 @@
         <v>70355.041038038209</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>921</v>
       </c>
@@ -16550,7 +16548,7 @@
         <v>43305.8258334438</v>
       </c>
     </row>
-    <row r="924" spans="1:4">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>922</v>
       </c>
@@ -16564,7 +16562,7 @@
         <v>34097.650513240027</v>
       </c>
     </row>
-    <row r="925" spans="1:4">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>923</v>
       </c>
@@ -16578,7 +16576,7 @@
         <v>40907.522961689494</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>924</v>
       </c>
@@ -16592,7 +16590,7 @@
         <v>75925.392498662288</v>
       </c>
     </row>
-    <row r="927" spans="1:4">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>925</v>
       </c>
@@ -16606,7 +16604,7 @@
         <v>90596.506432722366</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>926</v>
       </c>
@@ -16620,7 +16618,7 @@
         <v>27372.021328585848</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>927</v>
       </c>
@@ -16634,7 +16632,7 @@
         <v>78575.368549517792</v>
       </c>
     </row>
-    <row r="930" spans="1:4">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>928</v>
       </c>
@@ -16648,7 +16646,7 @@
         <v>42421.369524069982</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>929</v>
       </c>
@@ -16662,7 +16660,7 @@
         <v>63418.006965303641</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>930</v>
       </c>
@@ -16676,7 +16674,7 @@
         <v>65138.260693359392</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>931</v>
       </c>
@@ -16690,7 +16688,7 @@
         <v>37701.066015909943</v>
       </c>
     </row>
-    <row r="934" spans="1:4">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>932</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>64353.308707199816</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>933</v>
       </c>
@@ -16718,7 +16716,7 @@
         <v>33541.3899103191</v>
       </c>
     </row>
-    <row r="936" spans="1:4">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>934</v>
       </c>
@@ -16732,7 +16730,7 @@
         <v>76784.419783035803</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>935</v>
       </c>
@@ -16746,7 +16744,7 @@
         <v>13715.144704437133</v>
       </c>
     </row>
-    <row r="938" spans="1:4">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>936</v>
       </c>
@@ -16760,7 +16758,7 @@
         <v>65878.121628913796</v>
       </c>
     </row>
-    <row r="939" spans="1:4">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>937</v>
       </c>
@@ -16774,7 +16772,7 @@
         <v>68030.71060666666</v>
       </c>
     </row>
-    <row r="940" spans="1:4">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>938</v>
       </c>
@@ -16788,7 +16786,7 @@
         <v>61748.342556460222</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>939</v>
       </c>
@@ -16802,7 +16800,7 @@
         <v>69643.438225732272</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>940</v>
       </c>
@@ -16816,7 +16814,7 @@
         <v>42983.740425870208</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>941</v>
       </c>
@@ -16830,7 +16828,7 @@
         <v>40698.504390999005</v>
       </c>
     </row>
-    <row r="944" spans="1:4">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>942</v>
       </c>
@@ -16844,7 +16842,7 @@
         <v>76612.437433411047</v>
       </c>
     </row>
-    <row r="945" spans="1:4">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>943</v>
       </c>
@@ -16858,7 +16856,7 @@
         <v>5015.6732705563427</v>
       </c>
     </row>
-    <row r="946" spans="1:4">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>944</v>
       </c>
@@ -16872,7 +16870,7 @@
         <v>61971.812860163955</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>945</v>
       </c>
@@ -16886,7 +16884,7 @@
         <v>50311.982991004792</v>
       </c>
     </row>
-    <row r="948" spans="1:4">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>946</v>
       </c>
@@ -16900,7 +16898,7 @@
         <v>35969.815024122552</v>
       </c>
     </row>
-    <row r="949" spans="1:4">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>947</v>
       </c>
@@ -16914,7 +16912,7 @@
         <v>37851.380651659674</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>948</v>
       </c>
@@ -16928,7 +16926,7 @@
         <v>83723.838773053605</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>949</v>
       </c>
@@ -16942,7 +16940,7 @@
         <v>88659.579954382469</v>
       </c>
     </row>
-    <row r="952" spans="1:4">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>950</v>
       </c>
@@ -16956,7 +16954,7 @@
         <v>93536.046329675271</v>
       </c>
     </row>
-    <row r="953" spans="1:4">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>951</v>
       </c>
@@ -16970,7 +16968,7 @@
         <v>23506.366519415333</v>
       </c>
     </row>
-    <row r="954" spans="1:4">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>952</v>
       </c>
@@ -16984,7 +16982,7 @@
         <v>76919.990773970887</v>
       </c>
     </row>
-    <row r="955" spans="1:4">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>953</v>
       </c>
@@ -16998,7 +16996,7 @@
         <v>51291.387999292667</v>
       </c>
     </row>
-    <row r="956" spans="1:4">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>954</v>
       </c>
@@ -17012,7 +17010,7 @@
         <v>64385.737242756069</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>955</v>
       </c>
@@ -17026,7 +17024,7 @@
         <v>99886.023187895116</v>
       </c>
     </row>
-    <row r="958" spans="1:4">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>956</v>
       </c>
@@ -17040,7 +17038,7 @@
         <v>26869.690830458869</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>957</v>
       </c>
@@ -17054,7 +17052,7 @@
         <v>90276.260964032757</v>
       </c>
     </row>
-    <row r="960" spans="1:4">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>958</v>
       </c>
@@ -17068,7 +17066,7 @@
         <v>60003.188267164085</v>
       </c>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>959</v>
       </c>
@@ -17082,7 +17080,7 @@
         <v>42045.426053503696</v>
       </c>
     </row>
-    <row r="962" spans="1:4">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>960</v>
       </c>
@@ -17096,7 +17094,7 @@
         <v>29540.109614887468</v>
       </c>
     </row>
-    <row r="963" spans="1:4">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>961</v>
       </c>
@@ -17110,7 +17108,7 @@
         <v>95992.696150731586</v>
       </c>
     </row>
-    <row r="964" spans="1:4">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>962</v>
       </c>
@@ -17124,7 +17122,7 @@
         <v>61791.945449168132</v>
       </c>
     </row>
-    <row r="965" spans="1:4">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>963</v>
       </c>
@@ -17138,7 +17136,7 @@
         <v>28413.665261250288</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>964</v>
       </c>
@@ -17152,7 +17150,7 @@
         <v>12556.415373534424</v>
       </c>
     </row>
-    <row r="967" spans="1:4">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>965</v>
       </c>
@@ -17166,7 +17164,7 @@
         <v>6793.6412339371091</v>
       </c>
     </row>
-    <row r="968" spans="1:4">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>966</v>
       </c>
@@ -17180,7 +17178,7 @@
         <v>33751.98079038073</v>
       </c>
     </row>
-    <row r="969" spans="1:4">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>967</v>
       </c>
@@ -17194,7 +17192,7 @@
         <v>89578.758666152949</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>968</v>
       </c>
@@ -17208,7 +17206,7 @@
         <v>24537.664695488282</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>969</v>
       </c>
@@ -17222,7 +17220,7 @@
         <v>88149.353171896204</v>
       </c>
     </row>
-    <row r="972" spans="1:4">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>970</v>
       </c>
@@ -17236,7 +17234,7 @@
         <v>38908.162685060168</v>
       </c>
     </row>
-    <row r="973" spans="1:4">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>971</v>
       </c>
@@ -17250,7 +17248,7 @@
         <v>12629.790293169952</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>972</v>
       </c>
@@ -17264,7 +17262,7 @@
         <v>49553.067517071649</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>973</v>
       </c>
@@ -17278,7 +17276,7 @@
         <v>860.49262300513794</v>
       </c>
     </row>
-    <row r="976" spans="1:4">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>974</v>
       </c>
@@ -17292,7 +17290,7 @@
         <v>81758.002265779694</v>
       </c>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>975</v>
       </c>
@@ -17306,7 +17304,7 @@
         <v>48697.155724478434</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>976</v>
       </c>
@@ -17320,7 +17318,7 @@
         <v>75822.346230490206</v>
       </c>
     </row>
-    <row r="979" spans="1:4">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>977</v>
       </c>
@@ -17334,7 +17332,7 @@
         <v>2490.0218646241478</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>978</v>
       </c>
@@ -17348,7 +17346,7 @@
         <v>67811.363760195847</v>
       </c>
     </row>
-    <row r="981" spans="1:4">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>979</v>
       </c>
@@ -17362,7 +17360,7 @@
         <v>22869.802327369503</v>
       </c>
     </row>
-    <row r="982" spans="1:4">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>980</v>
       </c>
@@ -17376,7 +17374,7 @@
         <v>46029.010994935328</v>
       </c>
     </row>
-    <row r="983" spans="1:4">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>981</v>
       </c>
@@ -17390,7 +17388,7 @@
         <v>35020.101686833579</v>
       </c>
     </row>
-    <row r="984" spans="1:4">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>982</v>
       </c>
@@ -17404,7 +17402,7 @@
         <v>4547.0360349148641</v>
       </c>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>983</v>
       </c>
@@ -17418,7 +17416,7 @@
         <v>61159.006589189579</v>
       </c>
     </row>
-    <row r="986" spans="1:4">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>984</v>
       </c>
@@ -17432,7 +17430,7 @@
         <v>23551.166876520834</v>
       </c>
     </row>
-    <row r="987" spans="1:4">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>985</v>
       </c>
@@ -17446,7 +17444,7 @@
         <v>25802.968598079802</v>
       </c>
     </row>
-    <row r="988" spans="1:4">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>986</v>
       </c>
@@ -17460,7 +17458,7 @@
         <v>9524.2346774282014</v>
       </c>
     </row>
-    <row r="989" spans="1:4">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>987</v>
       </c>
@@ -17474,7 +17472,7 @@
         <v>41023.071887536178</v>
       </c>
     </row>
-    <row r="990" spans="1:4">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>988</v>
       </c>
@@ -17488,7 +17486,7 @@
         <v>59883.365081214746</v>
       </c>
     </row>
-    <row r="991" spans="1:4">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>989</v>
       </c>
@@ -17502,7 +17500,7 @@
         <v>12023.388806820012</v>
       </c>
     </row>
-    <row r="992" spans="1:4">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>990</v>
       </c>
@@ -17516,7 +17514,7 @@
         <v>96076.090611451393</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>991</v>
       </c>
@@ -17530,7 +17528,7 @@
         <v>83005.056336018359</v>
       </c>
     </row>
-    <row r="994" spans="1:4">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>992</v>
       </c>
@@ -17544,7 +17542,7 @@
         <v>97277.209142933803</v>
       </c>
     </row>
-    <row r="995" spans="1:4">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>993</v>
       </c>
@@ -17558,7 +17556,7 @@
         <v>81223.992017205164</v>
       </c>
     </row>
-    <row r="996" spans="1:4">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>994</v>
       </c>
@@ -17572,7 +17570,7 @@
         <v>71.867857415597314</v>
       </c>
     </row>
-    <row r="997" spans="1:4">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>995</v>
       </c>
@@ -17586,7 +17584,7 @@
         <v>88678.950431491321</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>996</v>
       </c>
@@ -17600,7 +17598,7 @@
         <v>30292.967135868221</v>
       </c>
     </row>
-    <row r="999" spans="1:4">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>997</v>
       </c>
@@ -17614,7 +17612,7 @@
         <v>16452.590353456118</v>
       </c>
     </row>
-    <row r="1000" spans="1:4">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -17628,7 +17626,7 @@
         <v>15315.824974021552</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>999</v>
       </c>
@@ -17642,7 +17640,7 @@
         <v>10624.786812754915</v>
       </c>
     </row>
-    <row r="1002" spans="1:4">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>1000</v>
       </c>
